--- a/src/main/resources/excel_sheets/container_status_report.xlsx
+++ b/src/main/resources/excel_sheets/container_status_report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Ingredient</t>
   </si>
@@ -29,13 +29,22 @@
     <t>10000.0</t>
   </si>
   <si>
+    <t>8460.0</t>
+  </si>
+  <si>
     <t>TEA</t>
   </si>
   <si>
     <t>2000.0</t>
   </si>
   <si>
+    <t>1970.0</t>
+  </si>
+  <si>
     <t>COFFEE</t>
+  </si>
+  <si>
+    <t>12104.0</t>
   </si>
   <si>
     <t>WATER</t>
@@ -44,10 +53,16 @@
     <t>15000.0</t>
   </si>
   <si>
+    <t>13546.0</t>
+  </si>
+  <si>
     <t>SUGAR</t>
   </si>
   <si>
     <t>8000.0</t>
+  </si>
+  <si>
+    <t>7541.0</t>
   </si>
 </sst>
 </file>
@@ -129,51 +144,51 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
